--- a/test/dv/well_rupture_shear/SasakiEtal2022.xlsx
+++ b/test/dv/well_rupture_shear/SasakiEtal2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/test/dv/well_rupture_shear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{D6F4385A-CD96-4FC7-9CA2-EF6DEDCEFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40AEEB2B-C995-4ACE-89D7-0BA1D2B086FA}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:40009_{D6F4385A-CD96-4FC7-9CA2-EF6DEDCEFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{184A944E-9F40-43C6-8C9E-78EC676D9458}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="7680" windowWidth="19845" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SasakiEtal2022" sheetId="1" r:id="rId1"/>
@@ -32,33 +32,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Tubing</t>
+    <t>strain_crit_rup_casing</t>
   </si>
   <si>
-    <t>moment_crit_production</t>
+    <t>strain_crit_rup_tubing</t>
   </si>
   <si>
-    <t>moment_crit_tubing</t>
+    <t>sigma_strain_crit_rup_casing</t>
   </si>
   <si>
-    <t>sigma_moment_crit_production</t>
+    <t>sigma_strain_crit_rup_tubing</t>
   </si>
   <si>
-    <t>sigma_moment_crit_tubing</t>
+    <t>sigma_mu_strain_crit_rup_casing</t>
   </si>
   <si>
-    <t>Mean Failure Strain</t>
-  </si>
-  <si>
-    <t>Sigma Failure Strain</t>
-  </si>
-  <si>
-    <t>Epistemic Uncertainty</t>
-  </si>
-  <si>
-    <t>Casin</t>
+    <t>sigma_mu_strain_crit_rup_tubing</t>
   </si>
 </sst>
 </file>
@@ -899,93 +890,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="10" width="13" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.0733543176654781</v>
+        <v>58.753711039999999</v>
       </c>
       <c r="B2">
-        <v>4.0053566981794937</v>
+        <v>54.891400570000002</v>
       </c>
       <c r="C2">
-        <v>0.18565745516615109</v>
+        <v>0.185657455</v>
       </c>
       <c r="D2">
-        <v>0.3920148187852911</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>EXP(A2)</f>
-        <v>58.753711039873089</v>
-      </c>
-      <c r="B3">
-        <f>EXP(B2)</f>
-        <v>54.891400570123459</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>4.0733543176654781</v>
-      </c>
-      <c r="I3">
-        <v>0.18565745516615109</v>
-      </c>
-      <c r="J3">
-        <v>0.10298422681134069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.0053566981794937</v>
-      </c>
-      <c r="I4">
-        <v>0.3920148187852911</v>
-      </c>
-      <c r="J4">
-        <v>0.26134321252352738</v>
+        <v>0.39201481900000001</v>
+      </c>
+      <c r="E2">
+        <v>0.102984227</v>
+      </c>
+      <c r="F2">
+        <v>0.26134321300000002</v>
       </c>
     </row>
   </sheetData>
